--- a/team_specific_matrix/San Francisco_A.xlsx
+++ b/team_specific_matrix/San Francisco_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1560693641618497</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="C2">
-        <v>0.6416184971098265</v>
+        <v>0.6186046511627907</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0115606936416185</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.005780346820809248</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="P2">
-        <v>0.138728323699422</v>
+        <v>0.1441860465116279</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.04624277456647399</v>
+        <v>0.05116279069767442</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008620689655172414</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="C3">
-        <v>0.03448275862068965</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04310344827586207</v>
+        <v>0.05035971223021583</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7413793103448276</v>
+        <v>0.7482014388489209</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1724137931034483</v>
+        <v>0.1654676258992806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02941176470588235</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P4">
-        <v>0.7352941176470589</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2058823529411765</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02116402116402116</v>
+        <v>0.02008032128514056</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02116402116402116</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06349206349206349</v>
+        <v>0.06425702811244979</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2380952380952381</v>
+        <v>0.2369477911646586</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03703703703703703</v>
+        <v>0.0321285140562249</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.201058201058201</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="R6">
-        <v>0.07407407407407407</v>
+        <v>0.08032128514056225</v>
       </c>
       <c r="S6">
-        <v>0.3439153439153439</v>
+        <v>0.3453815261044177</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1125827814569536</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006622516556291391</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05298013245033113</v>
+        <v>0.05853658536585366</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1390728476821192</v>
+        <v>0.1268292682926829</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.05960264900662252</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1788079470198675</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.09933774834437085</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S7">
-        <v>0.3509933774834437</v>
+        <v>0.375609756097561</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0880281690140845</v>
+        <v>0.08967391304347826</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02112676056338028</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04225352112676056</v>
+        <v>0.05706521739130434</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1197183098591549</v>
+        <v>0.1141304347826087</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0176056338028169</v>
+        <v>0.01630434782608696</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2077464788732394</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="R8">
-        <v>0.09507042253521127</v>
+        <v>0.09782608695652174</v>
       </c>
       <c r="S8">
-        <v>0.4084507042253521</v>
+        <v>0.3967391304347826</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1103448275862069</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01379310344827586</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E9">
-        <v>0.006896551724137931</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="F9">
-        <v>0.06896551724137931</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0896551724137931</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.04137931034482759</v>
+        <v>0.03529411764705882</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2206896551724138</v>
+        <v>0.2294117647058823</v>
       </c>
       <c r="R9">
-        <v>0.1103448275862069</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="S9">
-        <v>0.3379310344827586</v>
+        <v>0.3294117647058823</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08097165991902834</v>
+        <v>0.07959022852639874</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02226720647773279</v>
+        <v>0.02285263987391647</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08704453441295547</v>
+        <v>0.08274231678486997</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1093117408906883</v>
+        <v>0.1142631993695823</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01518218623481781</v>
+        <v>0.01812450748620961</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2287449392712551</v>
+        <v>0.2379826635145784</v>
       </c>
       <c r="R10">
-        <v>0.1062753036437247</v>
+        <v>0.1000788022064618</v>
       </c>
       <c r="S10">
-        <v>0.3502024291497975</v>
+        <v>0.3443656422379827</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1548672566371681</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09734513274336283</v>
+        <v>0.09061488673139159</v>
       </c>
       <c r="K11">
-        <v>0.2035398230088496</v>
+        <v>0.2103559870550162</v>
       </c>
       <c r="L11">
-        <v>0.5176991150442478</v>
+        <v>0.517799352750809</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02654867256637168</v>
+        <v>0.03559870550161812</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7317073170731707</v>
+        <v>0.7469879518072289</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2113821138211382</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="K12">
-        <v>0.01626016260162602</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="L12">
-        <v>0.03252032520325204</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.008130081300813009</v>
+        <v>0.006024096385542169</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.675</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.325</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01456310679611651</v>
+        <v>0.02641509433962264</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.145631067961165</v>
+        <v>0.1471698113207547</v>
       </c>
       <c r="I15">
-        <v>0.08737864077669903</v>
+        <v>0.07169811320754717</v>
       </c>
       <c r="J15">
-        <v>0.3592233009708738</v>
+        <v>0.3773584905660378</v>
       </c>
       <c r="K15">
-        <v>0.06310679611650485</v>
+        <v>0.06415094339622641</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01456310679611651</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0825242718446602</v>
+        <v>0.0830188679245283</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2330097087378641</v>
+        <v>0.2150943396226415</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.032</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.152</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="I16">
-        <v>0.07199999999999999</v>
+        <v>0.06369426751592357</v>
       </c>
       <c r="J16">
-        <v>0.416</v>
+        <v>0.4267515923566879</v>
       </c>
       <c r="K16">
-        <v>0.112</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.03184713375796178</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.064</v>
+        <v>0.07006369426751592</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.112</v>
+        <v>0.1401273885350318</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02380952380952381</v>
+        <v>0.02385685884691849</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1402116402116402</v>
+        <v>0.1332007952286282</v>
       </c>
       <c r="I17">
-        <v>0.09788359788359788</v>
+        <v>0.08548707753479125</v>
       </c>
       <c r="J17">
-        <v>0.4153439153439153</v>
+        <v>0.4294234592445328</v>
       </c>
       <c r="K17">
-        <v>0.09788359788359788</v>
+        <v>0.1053677932405567</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02380952380952381</v>
+        <v>0.02584493041749503</v>
       </c>
       <c r="N17">
-        <v>0.002645502645502645</v>
+        <v>0.003976143141153081</v>
       </c>
       <c r="O17">
-        <v>0.1005291005291005</v>
+        <v>0.09940357852882704</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09788359788359788</v>
+        <v>0.09343936381709742</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01685393258426966</v>
+        <v>0.01339285714285714</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1235955056179775</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="I18">
-        <v>0.0898876404494382</v>
+        <v>0.09375</v>
       </c>
       <c r="J18">
-        <v>0.4831460674157304</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="K18">
-        <v>0.07865168539325842</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03370786516853932</v>
+        <v>0.03125</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07865168539325842</v>
+        <v>0.08035714285714286</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09550561797752809</v>
+        <v>0.09821428571428571</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02641056422569028</v>
+        <v>0.0261437908496732</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1932773109243698</v>
+        <v>0.1979458450046685</v>
       </c>
       <c r="I19">
-        <v>0.07683073229291716</v>
+        <v>0.07096171802054155</v>
       </c>
       <c r="J19">
-        <v>0.4093637454981993</v>
+        <v>0.3940242763772175</v>
       </c>
       <c r="K19">
-        <v>0.1188475390156062</v>
+        <v>0.1297852474323063</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02160864345738295</v>
+        <v>0.02334267040149393</v>
       </c>
       <c r="N19">
-        <v>0.002400960384153661</v>
+        <v>0.002801120448179272</v>
       </c>
       <c r="O19">
-        <v>0.07923169267707082</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07202881152460984</v>
+        <v>0.07563025210084033</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/San Francisco_A.xlsx
+++ b/team_specific_matrix/San Francisco_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1627906976744186</v>
+        <v>0.1687763713080169</v>
       </c>
       <c r="C2">
-        <v>0.6186046511627907</v>
+        <v>0.5991561181434599</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0186046511627907</v>
+        <v>0.02109704641350211</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.004651162790697674</v>
+        <v>0.004219409282700422</v>
       </c>
       <c r="P2">
-        <v>0.1441860465116279</v>
+        <v>0.1476793248945148</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05116279069767442</v>
+        <v>0.05907172995780591</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007194244604316547</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C3">
-        <v>0.02877697841726619</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05035971223021583</v>
+        <v>0.0472972972972973</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7482014388489209</v>
+        <v>0.7432432432432432</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1654676258992806</v>
+        <v>0.1689189189189189</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02173913043478261</v>
+        <v>0.02</v>
       </c>
       <c r="P4">
-        <v>0.6956521739130435</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2608695652173913</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.02008032128514056</v>
+        <v>0.02527075812274368</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02409638554216868</v>
+        <v>0.02166064981949458</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06425702811244979</v>
+        <v>0.06137184115523465</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2369477911646586</v>
+        <v>0.2454873646209386</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0321285140562249</v>
+        <v>0.03249097472924187</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1967871485943775</v>
+        <v>0.1913357400722022</v>
       </c>
       <c r="R6">
-        <v>0.08032128514056225</v>
+        <v>0.07581227436823104</v>
       </c>
       <c r="S6">
-        <v>0.3453815261044177</v>
+        <v>0.3465703971119133</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09268292682926829</v>
+        <v>0.09361702127659574</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00975609756097561</v>
+        <v>0.008510638297872341</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05853658536585366</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1268292682926829</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04878048780487805</v>
+        <v>0.04680851063829787</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0.2042553191489362</v>
       </c>
       <c r="R7">
-        <v>0.08780487804878048</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="S7">
-        <v>0.375609756097561</v>
+        <v>0.3787234042553191</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08967391304347826</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02173913043478261</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05706521739130434</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1141304347826087</v>
+        <v>0.1113744075829384</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01630434782608696</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2065217391304348</v>
+        <v>0.2061611374407583</v>
       </c>
       <c r="R8">
-        <v>0.09782608695652174</v>
+        <v>0.0995260663507109</v>
       </c>
       <c r="S8">
-        <v>0.3967391304347826</v>
+        <v>0.4028436018957346</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01176470588235294</v>
+        <v>0.01648351648351648</v>
       </c>
       <c r="E9">
-        <v>0.005882352941176471</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="F9">
-        <v>0.07647058823529412</v>
+        <v>0.08241758241758242</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08235294117647059</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03529411764705882</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2294117647058823</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="R9">
-        <v>0.1294117647058824</v>
+        <v>0.1318681318681319</v>
       </c>
       <c r="S9">
-        <v>0.3294117647058823</v>
+        <v>0.3296703296703297</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.07959022852639874</v>
+        <v>0.07818052594171997</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02285263987391647</v>
+        <v>0.02203269367448472</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001421464108031272</v>
       </c>
       <c r="F10">
-        <v>0.08274231678486997</v>
+        <v>0.08102345415778252</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1142631993695823</v>
+        <v>0.1144278606965174</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01812450748620961</v>
+        <v>0.01918976545842218</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2379826635145784</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="R10">
-        <v>0.1000788022064618</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="S10">
-        <v>0.3443656422379827</v>
+        <v>0.3461265103056148</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.145631067961165</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09061488673139159</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="K11">
-        <v>0.2103559870550162</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="L11">
-        <v>0.517799352750809</v>
+        <v>0.5252808988764045</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03559870550161812</v>
+        <v>0.03089887640449438</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7469879518072289</v>
+        <v>0.7577319587628866</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2048192771084337</v>
+        <v>0.1958762886597938</v>
       </c>
       <c r="K12">
-        <v>0.01807228915662651</v>
+        <v>0.0154639175257732</v>
       </c>
       <c r="L12">
-        <v>0.02409638554216868</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.006024096385542169</v>
+        <v>0.005154639175257732</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7169811320754716</v>
+        <v>0.7049180327868853</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2830188679245283</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02641509433962264</v>
+        <v>0.0273037542662116</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1471698113207547</v>
+        <v>0.1467576791808874</v>
       </c>
       <c r="I15">
-        <v>0.07169811320754717</v>
+        <v>0.06825938566552901</v>
       </c>
       <c r="J15">
-        <v>0.3773584905660378</v>
+        <v>0.3651877133105802</v>
       </c>
       <c r="K15">
-        <v>0.06415094339622641</v>
+        <v>0.06143344709897611</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01509433962264151</v>
+        <v>0.0136518771331058</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0830188679245283</v>
+        <v>0.07849829351535836</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2150943396226415</v>
+        <v>0.2389078498293515</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03184713375796178</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1401273885350318</v>
+        <v>0.1411764705882353</v>
       </c>
       <c r="I16">
-        <v>0.06369426751592357</v>
+        <v>0.06470588235294118</v>
       </c>
       <c r="J16">
-        <v>0.4267515923566879</v>
+        <v>0.4176470588235294</v>
       </c>
       <c r="K16">
-        <v>0.09554140127388536</v>
+        <v>0.09411764705882353</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03184713375796178</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07006369426751592</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1401273885350318</v>
+        <v>0.1411764705882353</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02385685884691849</v>
+        <v>0.02504472271914132</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1332007952286282</v>
+        <v>0.1359570661896243</v>
       </c>
       <c r="I17">
-        <v>0.08548707753479125</v>
+        <v>0.08228980322003578</v>
       </c>
       <c r="J17">
-        <v>0.4294234592445328</v>
+        <v>0.4239713774597496</v>
       </c>
       <c r="K17">
-        <v>0.1053677932405567</v>
+        <v>0.112701252236136</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02584493041749503</v>
+        <v>0.02862254025044723</v>
       </c>
       <c r="N17">
-        <v>0.003976143141153081</v>
+        <v>0.003577817531305903</v>
       </c>
       <c r="O17">
-        <v>0.09940357852882704</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09343936381709742</v>
+        <v>0.09481216457960644</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01339285714285714</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1383928571428572</v>
+        <v>0.1491935483870968</v>
       </c>
       <c r="I18">
-        <v>0.09375</v>
+        <v>0.09274193548387097</v>
       </c>
       <c r="J18">
-        <v>0.4732142857142857</v>
+        <v>0.4717741935483871</v>
       </c>
       <c r="K18">
-        <v>0.07142857142857142</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03125</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08035714285714286</v>
+        <v>0.08064516129032258</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09821428571428571</v>
+        <v>0.08870967741935484</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0261437908496732</v>
+        <v>0.02649006622516556</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1979458450046685</v>
+        <v>0.2044701986754967</v>
       </c>
       <c r="I19">
-        <v>0.07096171802054155</v>
+        <v>0.06705298013245033</v>
       </c>
       <c r="J19">
-        <v>0.3940242763772175</v>
+        <v>0.3874172185430463</v>
       </c>
       <c r="K19">
-        <v>0.1297852474323063</v>
+        <v>0.1357615894039735</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02334267040149393</v>
+        <v>0.02235099337748344</v>
       </c>
       <c r="N19">
-        <v>0.002801120448179272</v>
+        <v>0.002483443708609272</v>
       </c>
       <c r="O19">
-        <v>0.07936507936507936</v>
+        <v>0.07864238410596026</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.07563025210084033</v>
+        <v>0.07533112582781457</v>
       </c>
     </row>
   </sheetData>
